--- a/biology/Botanique/Condylocarpon_guyanense/Condylocarpon_guyanense.xlsx
+++ b/biology/Botanique/Condylocarpon_guyanense/Condylocarpon_guyanense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Condylocarpon guyanense est une espèce de plantes à fleurs de la famille des Apocynaceae. C'est l'espèce type du genre Condylocarpon Desf.. C'est une liane néotropicale plutôt rare.
 Le nom Condylocarpon signifie fruit articulé (carpon, du grec « καρπός » - fruit, et condylo-, du grec « κόνδυλος » - articulation).
-Elle est connue en Guyane sous le nom de ɨpokasili sili (Wayãpi - NB : nom partagé avec Odontadenia nitida, Odontadenia puncticulosa et Mesechites trifida)[2].
+Elle est connue en Guyane sous le nom de ɨpokasili sili (Wayãpi - NB : nom partagé avec Odontadenia nitida, Odontadenia puncticulosa et Mesechites trifida).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Condylocarpon guyanense est une liane ligneuse atteignant jusqu'à 10 m de long. Ses tiges sont cylindriques, brun rougeâtre, lenticellées, et pubérulentes (pour les plus jeunes parties). 
 Les feuilles sont verticillées par 3.
@@ -527,7 +541,7 @@
 Les anthères sont lancéolées.
 L'ovaire est glabre, conique, long d'environ 0,05 cm, avec un style très court et un stigmate orbiculaire.
 Le fruit est une paire de follicules brun rougeâtre, glabres, longs d'environ 1,5 à 2,5 cm sur 0,7 cm de large, articulés en 1 à 5 segments indéhiscents, contenant chacun une seule graine.
-Les graines sont brunes, longues d'environ 1 cm, et portent une radicule aussi longue que les cotylédons[3].
+Les graines sont brunes, longues d'environ 1 cm, et portent une radicule aussi longue que les cotylédons.
 </t>
         </is>
       </c>
@@ -556,9 +570,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Condylocarpon guyanense est endémique du plateau des Guyanes. On l'a rencontré au Guyana, en Guyane et au nord-est du Brésil (Amapá)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Condylocarpon guyanense est endémique du plateau des Guyanes. On l'a rencontré au Guyana, en Guyane et au nord-est du Brésil (Amapá).
 </t>
         </is>
       </c>
@@ -587,10 +603,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Condylocarpon guyanense est une liane de taille moyenne, peu fréquente, poussant dans les clairières des forêts de plaine anciennes.
-Elle fleurit en avril-août, et fructifie en septembre[3]-décembre.
+Elle fleurit en avril-août, et fructifie en septembre-décembre.
 </t>
         </is>
       </c>
@@ -619,9 +637,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Wayãpi ramollissent les feuilles de Condylocarpon guyanense à la flamme, et lorsqu'elles deviennent vert foncé, ils les frottent sur le corps du patient pour lutter contre la fièvre[2], notamment dans un contexte paludique[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Wayãpi ramollissent les feuilles de Condylocarpon guyanense à la flamme, et lorsqu'elles deviennent vert foncé, ils les frottent sur le corps du patient pour lutter contre la fièvre, notamment dans un contexte paludique.
 </t>
         </is>
       </c>
@@ -650,9 +670,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étonnamment au vu du contexte taxonomique, les analyses n'ont pas pu démontrer la présence d'alcaloïdes dans les feuilles et les tiges[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étonnamment au vu du contexte taxonomique, les analyses n'ont pas pu démontrer la présence d'alcaloïdes dans les feuilles et les tiges.
 </t>
         </is>
       </c>
@@ -681,9 +703,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1822, le botaniste Desfontaines propose le protologue suivante[1] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1822, le botaniste Desfontaines propose le protologue suivante : 
 « CONDYLOCARPON GUYANENSE.
 C. Foliis ternatis , lœvibus , ovato-lanceolatis , acuminatis.
 Tiges ligneuses. Rameaux flexibles, noueux à la naissance des feuilles, très-légèrement striés et parsemés de petits tubercules à peine visibles.
